--- a/code/LME/parser_beta/data/cb_metall.xlsx
+++ b/code/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,134 @@
         <v>3727.93</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4129.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>54.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2281.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3802.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4173.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2353.48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4153.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/cb_metall.xlsx
+++ b/code/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +646,70 @@
         <v>4153.88</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4101.62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>53.95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2331.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4013.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/cb_metall.xlsx
+++ b/code/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,70 @@
         <v>4013.99</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4186.35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>53.01</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2425.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4032.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/cb_metall.xlsx
+++ b/code/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,6 +774,70 @@
         <v>4032.2</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4204.85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>53.38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2443.89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4012.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
